--- a/benchmarks/multi-intersect-ordering/ducc_ncvoter_charts.xlsx
+++ b/benchmarks/multi-intersect-ordering/ducc_ncvoter_charts.xlsx
@@ -1633,7 +1633,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>baseline</c:v>
+            <c:v>Baseline</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -1814,7 +1814,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>key-error-ordering</c:v>
+            <c:v>Key Error Ordering</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2065,7 +2065,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t>columns</a:t>
+                  <a:t>Columns</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2187,11 +2187,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>execution</a:t>
+                  <a:t>Execution</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> time in s</a:t>
+                  <a:t> Time in s</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -2894,7 +2894,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2905,7 +2905,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298781" cy="6084094"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
